--- a/Doc/核心玩法策划.xlsx
+++ b/Doc/核心玩法策划.xlsx
@@ -104,7 +104,7 @@
     <t>出售一定数量特定种类物品</t>
   </si>
   <si>
-    <t>通过指定种类物品获得金币</t>
+    <t>出售指定种类物品获得金币</t>
   </si>
   <si>
     <t>限时机制，</t>
@@ -300,8 +300,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +354,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -323,14 +375,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,48 +404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,15 +422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,22 +438,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +459,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,169 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +718,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -729,6 +755,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,41 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -823,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,137 +835,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,22 +1026,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1669,7 +1657,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="17"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1684,7 +1672,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="17"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1697,7 +1685,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1698,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="17"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +1778,7 @@
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1805,7 +1793,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="19"/>
       <c r="C30" t="s">
         <v>39</v>
       </c>
@@ -1818,7 +1806,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="17"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1847,7 +1835,7 @@
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="3"/>
@@ -1862,7 +1850,7 @@
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="3"/>
@@ -1876,7 +1864,7 @@
       <c r="A35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="3"/>
@@ -1889,7 +1877,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6"/>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3"/>
@@ -1902,7 +1890,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6"/>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="3"/>
@@ -1915,7 +1903,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1926,7 +1914,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1939,7 +1927,7 @@
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="3"/>
@@ -1952,7 +1940,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6"/>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="3"/>
@@ -1965,7 +1953,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6"/>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1980,7 +1968,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1991,7 +1979,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6"/>
-      <c r="B44" s="24"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2004,7 +1992,7 @@
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2013,30 +2001,30 @@
       <c r="D45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6"/>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2045,15 +2033,15 @@
       <c r="D47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2062,15 +2050,15 @@
       <c r="D48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2079,78 +2067,78 @@
       <c r="D49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6"/>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6"/>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Doc/核心玩法策划.xlsx
+++ b/Doc/核心玩法策划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>核心玩法</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>使一定数量顾客购买一定数量商品或者离店时剩余金币小于一定数量</t>
+  </si>
+  <si>
+    <t>使一定数量顾客离开时好感度大于指定值</t>
   </si>
   <si>
     <t>等级</t>
@@ -965,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1024,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1380,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1710,8 +1719,8 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1723,13 +1732,11 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1738,7 +1745,9 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1765,7 +1774,9 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1775,15 +1786,9 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1792,9 +1797,13 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" t="s">
+      <c r="A30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="3"/>
@@ -1807,7 +1816,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="3"/>
@@ -1819,7 +1828,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="17"/>
-      <c r="B32" s="11"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1830,13 +1839,11 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" ht="44" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33" s="17"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1845,13 +1852,13 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" ht="40.5" spans="1:9">
-      <c r="A34" s="10"/>
+    <row r="34" ht="44" customHeight="1" spans="1:9">
+      <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>45</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1860,14 +1867,14 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="6" t="s">
+    <row r="35" ht="40.5" spans="1:9">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1876,8 +1883,10 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="6"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3"/>
@@ -1890,7 +1899,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6"/>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="3"/>
@@ -1903,7 +1912,9 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1914,7 +1925,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1924,12 +1935,8 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1939,8 +1946,10 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="3"/>
@@ -1953,12 +1962,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6"/>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1968,8 +1975,12 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1979,7 +1990,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1989,18 +2000,10 @@
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2008,14 +2011,18 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="6"/>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2024,15 +2031,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2041,14 +2046,14 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2058,14 +2063,14 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2074,14 +2079,16 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2089,14 +2096,14 @@
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2105,11 +2112,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6"/>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2118,7 +2127,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C53" s="3"/>
@@ -2131,7 +2140,9 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2140,22 +2151,33 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2182,19 +2204,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2207,16 +2229,16 @@
     <row r="2" s="2" customFormat="1" ht="27" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
